--- a/src/Input_Files/IngameSmall/country_parameters.xlsx
+++ b/src/Input_Files/IngameSmall/country_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\src\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\IngameSmall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE1DFD-4428-460E-9F8E-41C68FCED064}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B077DCE2-D001-4955-AC92-1DCBD34E68A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{60DA84D4-36C8-4008-A07F-6877966D96BB}"/>
+    <workbookView xWindow="3690" yWindow="3375" windowWidth="21600" windowHeight="11565" xr2:uid="{60DA84D4-36C8-4008-A07F-6877966D96BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>RGB</t>
   </si>
@@ -56,171 +56,15 @@
     <t>despotic_monarchy</t>
   </si>
   <si>
-    <t>atlantean</t>
-  </si>
-  <si>
-    <t>poseidon</t>
-  </si>
-  <si>
-    <t>(19, 62, 90)</t>
-  </si>
-  <si>
-    <t>(54, 66, 120)</t>
-  </si>
-  <si>
-    <t>Aeterna</t>
-  </si>
-  <si>
-    <t>Tertis</t>
-  </si>
-  <si>
-    <t>AT1</t>
-  </si>
-  <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t>(188, 49, 49)</t>
-  </si>
-  <si>
-    <t>(216, 26, 26)</t>
-  </si>
-  <si>
-    <t>(116, 10, 10)</t>
-  </si>
-  <si>
-    <t>(232, 68, 68)</t>
-  </si>
-  <si>
-    <t>(136, 28, 39)</t>
-  </si>
-  <si>
-    <t>(97, 12, 20)</t>
-  </si>
-  <si>
-    <t>(216, 67, 82)</t>
-  </si>
-  <si>
-    <t>(35, 76, 25)</t>
-  </si>
-  <si>
-    <t>Arcania</t>
-  </si>
-  <si>
-    <t>Saurelia</t>
-  </si>
-  <si>
-    <t>Titantis</t>
-  </si>
-  <si>
-    <t>Titania</t>
-  </si>
-  <si>
-    <t>Robaria</t>
-  </si>
-  <si>
-    <t>Gelia</t>
-  </si>
-  <si>
-    <t>Babylia</t>
-  </si>
-  <si>
-    <t>Tyrenia</t>
-  </si>
-  <si>
-    <t>TY1</t>
-  </si>
-  <si>
-    <t>BB1</t>
-  </si>
-  <si>
-    <t>GL1</t>
-  </si>
-  <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>TT1</t>
-  </si>
-  <si>
-    <t>TT2</t>
-  </si>
-  <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
     <t>ADJ</t>
   </si>
   <si>
-    <t>Aeternal</t>
-  </si>
-  <si>
-    <t>Tertian</t>
-  </si>
-  <si>
-    <t>Tyrenian</t>
-  </si>
-  <si>
-    <t>Babylian</t>
-  </si>
-  <si>
-    <t>Gelian</t>
-  </si>
-  <si>
-    <t>Robarian</t>
-  </si>
-  <si>
-    <t>Titanian</t>
-  </si>
-  <si>
-    <t>Titantish</t>
-  </si>
-  <si>
-    <t>Saurelian</t>
-  </si>
-  <si>
-    <t>Arcanian</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
     <t>Capital RGB</t>
   </si>
   <si>
-    <t>(5, 25, 63)</t>
-  </si>
-  <si>
-    <t>(206, 233, 96)</t>
-  </si>
-  <si>
-    <t>(174, 92, 27)</t>
-  </si>
-  <si>
-    <t>(77, 6, 48)</t>
-  </si>
-  <si>
-    <t>(66, 53, 1)</t>
-  </si>
-  <si>
-    <t>(247, 80, 80)</t>
-  </si>
-  <si>
-    <t>(229, 182, 66)</t>
-  </si>
-  <si>
-    <t>(64, 153, 9)</t>
-  </si>
-  <si>
-    <t>(132, 156, 1)</t>
-  </si>
-  <si>
-    <t>(211, 151, 86)</t>
-  </si>
-  <si>
     <t>Roma</t>
   </si>
   <si>
@@ -233,9 +77,6 @@
     <t>ROM</t>
   </si>
   <si>
-    <t>(169, 48, 48)</t>
-  </si>
-  <si>
     <t>roman</t>
   </si>
   <si>
@@ -257,20 +98,68 @@
     <t>SPA</t>
   </si>
   <si>
-    <t>(104, 138, 143)</t>
-  </si>
-  <si>
-    <t>(213, 136, 84)</t>
+    <t>(139, 16, 13)</t>
+  </si>
+  <si>
+    <t>Etruscia</t>
+  </si>
+  <si>
+    <t>Etruscian</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>(48, 30, 180)</t>
+  </si>
+  <si>
+    <t>(19, 139, 244)</t>
+  </si>
+  <si>
+    <t>(150, 70, 78)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testian</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>ET2</t>
+  </si>
+  <si>
+    <t>(68, 109, 53)</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>ET3</t>
+  </si>
+  <si>
+    <t>(145, 19, 193)</t>
+  </si>
+  <si>
+    <t>(135, 65, 24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E80E9-260A-4467-B2CD-36B8E63C4567}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -657,135 +546,135 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,290 +682,99 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>